--- a/wti模型3.0/data_input_auto/wti_连1-4.xlsx
+++ b/wti模型3.0/data_input_auto/wti_连1-4.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3559"/>
+  <dimension ref="A1:D3561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45711,9 +45711,37 @@
         <v>1.23</v>
       </c>
       <c r="C3559" t="n">
-        <v>0.1934</v>
-      </c>
-      <c r="D3559" t="inlineStr"/>
+        <v>0.0834</v>
+      </c>
+      <c r="D3559" t="n">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3560" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C3560" t="n">
+        <v>-0.5152</v>
+      </c>
+      <c r="D3560" t="n">
+        <v>22.11</v>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3561" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C3561" t="n">
+        <v>-0.7919</v>
+      </c>
+      <c r="D3561" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
